--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="861">
   <si>
     <t>anchor score</t>
   </si>
@@ -85,703 +85,703 @@
     <t>died</t>
   </si>
   <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>fraudulent</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>ex</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>delayed</t>
   </si>
   <si>
     <t>3</t>
@@ -2962,10 +2962,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3023,7 +3023,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0335211952535246</v>
+        <v>0.03403042751895199</v>
       </c>
       <c r="C3">
         <v>250</v>
@@ -3073,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03270679357146041</v>
+        <v>0.03320365397453657</v>
       </c>
       <c r="C4">
         <v>238</v>
@@ -3094,7 +3094,7 @@
         <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K4">
         <v>0.01036577040350652</v>
@@ -3123,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01340847810140984</v>
+        <v>0.0136121710075808</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -3144,7 +3144,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.01033033176848125</v>
@@ -3173,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01199290740382789</v>
+        <v>0.01217509587772099</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -3194,7 +3194,7 @@
         <v>2417</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.009820772469028544</v>
@@ -3223,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01180403091625442</v>
+        <v>0.01198335010100297</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -3244,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>0.009401048567256827</v>
@@ -3273,7 +3273,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01121833764410713</v>
+        <v>0.01138875935638893</v>
       </c>
       <c r="C8">
         <v>28</v>
@@ -3294,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="K8">
         <v>0.009123903927852905</v>
@@ -3303,19 +3303,19 @@
         <v>227</v>
       </c>
       <c r="M8">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="N8">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3323,7 +3323,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01060033268923632</v>
+        <v>0.01076136607091611</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -3344,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>0.008628112397788025</v>
@@ -3373,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009481225790898223</v>
+        <v>0.009625258426131302</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3394,7 +3394,7 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
         <v>0.008391090196548346</v>
@@ -3423,7 +3423,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009481225790898223</v>
+        <v>0.009625258426131302</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3444,7 +3444,7 @@
         <v>31</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K11">
         <v>0.008347272193674465</v>
@@ -3473,7 +3473,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008994680552870915</v>
+        <v>0.009131321908290739</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3494,7 +3494,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="K12">
         <v>0.007988079880968899</v>
@@ -3503,19 +3503,19 @@
         <v>174</v>
       </c>
       <c r="M12">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3523,7 +3523,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008994680552870915</v>
+        <v>0.009131321908290739</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3544,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K13">
         <v>0.007466027220699957</v>
@@ -3573,7 +3573,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008480266151389053</v>
+        <v>0.008609092856732892</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -3594,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K14">
         <v>0.007113892828894792</v>
@@ -3623,7 +3623,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008480266151389053</v>
+        <v>0.008609092856732892</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -3644,7 +3644,7 @@
         <v>61</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15">
         <v>0.007036143031805314</v>
@@ -3673,7 +3673,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008210982393934066</v>
+        <v>0.008335718315019931</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K16">
         <v>0.006824481102526922</v>
@@ -3723,7 +3723,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008210982393934066</v>
+        <v>0.008335718315019931</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3744,7 +3744,7 @@
         <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K17">
         <v>0.006661322502685973</v>
@@ -3773,28 +3773,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007932562621788469</v>
+        <v>0.007760131432545298</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K18">
         <v>0.00646576923847229</v>
@@ -3823,7 +3823,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007644008609603723</v>
+        <v>0.007760131432545298</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -3841,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19">
         <v>0.006264114159684398</v>
@@ -3873,7 +3873,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007644008609603723</v>
+        <v>0.007760131432545298</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -3891,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>0.006205294883745631</v>
@@ -3923,28 +3923,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007644008609603723</v>
+        <v>0.007455693117469828</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K21">
         <v>0.006055747729714522</v>
@@ -3973,28 +3973,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007344125917956212</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K22">
         <v>0.005964219827350791</v>
@@ -4023,7 +4023,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>0.00558312354162535</v>
@@ -4073,7 +4073,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -4091,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K24">
         <v>0.005550184472194754</v>
@@ -4123,7 +4123,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K25">
         <v>0.005450172956743069</v>
@@ -4173,7 +4173,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K26">
         <v>0.005450172956743069</v>
@@ -4223,7 +4223,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4241,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K27">
         <v>0.004993697506341464</v>
@@ -4273,28 +4273,28 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.007031465236627178</v>
+        <v>0.007138282697777974</v>
       </c>
       <c r="C28">
         <v>11</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K28">
         <v>0.004993697506341464</v>
@@ -4323,28 +4323,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007031465236627178</v>
+        <v>0.006806085503790399</v>
       </c>
       <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>11</v>
       </c>
-      <c r="D29">
-        <v>203</v>
-      </c>
-      <c r="E29">
-        <v>0.95</v>
-      </c>
-      <c r="F29">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>215</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K29">
         <v>0.004651508092426167</v>
@@ -4373,28 +4373,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.007031465236627178</v>
+        <v>0.006806085503790399</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K30">
         <v>0.004531706645065173</v>
@@ -4423,7 +4423,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006704239050704921</v>
+        <v>0.006806085503790399</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -4441,10 +4441,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K31">
         <v>0.004531706645065173</v>
@@ -4473,28 +4473,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006704239050704921</v>
+        <v>0.006806085503790399</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1842</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K32">
         <v>0.004450047584645471</v>
@@ -4523,13 +4523,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006704239050704921</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>256</v>
@@ -4573,25 +4573,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006704239050704921</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1842</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>257</v>
@@ -4623,7 +4623,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -4641,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K35">
         <v>0.004324668899306711</v>
@@ -4673,7 +4673,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -4691,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K36">
         <v>0.004324668899306711</v>
@@ -4723,7 +4723,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -4741,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K37">
         <v>0.004282060284836178</v>
@@ -4773,7 +4773,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -4791,10 +4791,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K38">
         <v>0.004107207939748557</v>
@@ -4823,28 +4823,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C39">
         <v>9</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K39">
         <v>0.004062319073469508</v>
@@ -4873,25 +4873,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00636019961354179</v>
+        <v>0.006456819642549669</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>622</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>258</v>
@@ -4923,28 +4923,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00636019961354179</v>
+        <v>0.006087547938860494</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>651</v>
+        <v>19</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K41">
         <v>0.003971019345628438</v>
@@ -4973,25 +4973,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00636019961354179</v>
+        <v>0.006087547938860494</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>272</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>622</v>
+        <v>11</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>259</v>
@@ -5023,7 +5023,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005996453701913945</v>
+        <v>0.006087547938860494</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K43">
         <v>0.003924573077125191</v>
@@ -5073,25 +5073,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005996453701913945</v>
+        <v>0.006087547938860494</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>260</v>
@@ -5123,13 +5123,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005996453701913945</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K45">
         <v>0.003733013610349978</v>
@@ -5173,28 +5173,28 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005996453701913945</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K46">
         <v>0.003733013610349978</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K47">
         <v>0.0036835675383246</v>
@@ -5273,7 +5273,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -5291,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K48">
         <v>0.0036835675383246</v>
@@ -5323,7 +5323,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K49">
         <v>0.003633448637828713</v>
@@ -5373,7 +5373,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -5391,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K50">
         <v>0.003582628671531548</v>
@@ -5423,28 +5423,28 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C51">
         <v>7</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K51">
         <v>0.003425648227868943</v>
@@ -5473,25 +5473,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>261</v>
@@ -5523,28 +5523,28 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005609168822053564</v>
+        <v>0.005694379678194463</v>
       </c>
       <c r="C53">
         <v>7</v>
       </c>
       <c r="D53">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="E53">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F53">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K53">
         <v>0.003425648227868943</v>
@@ -5573,28 +5573,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005609168822053564</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K54">
         <v>0.003371697639979332</v>
@@ -5623,28 +5623,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005609168822053564</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K55">
         <v>0.003316869634125341</v>
@@ -5673,7 +5673,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>262</v>
@@ -5723,7 +5723,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -5741,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K57">
         <v>0.003261119955494331</v>
@@ -5773,7 +5773,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -5791,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K58">
         <v>0.003261119955494331</v>
@@ -5823,7 +5823,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -5841,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K59">
         <v>0.003261119955494331</v>
@@ -5873,28 +5873,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C60">
         <v>6</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>588</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K60">
         <v>0.00314665882370563</v>
@@ -5923,28 +5923,28 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C61">
         <v>6</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>942</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K61">
         <v>0.00314665882370563</v>
@@ -5973,28 +5973,28 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.005193081238474715</v>
+        <v>0.005271971161808786</v>
       </c>
       <c r="C62">
         <v>6</v>
       </c>
       <c r="D62">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>588</v>
+        <v>16</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K62">
         <v>0.003087837584320955</v>
@@ -6023,28 +6023,28 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.005193081238474715</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>942</v>
+        <v>25</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K63">
         <v>0.003027873864857261</v>
@@ -6073,13 +6073,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.005193081238474715</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>263</v>
@@ -6123,7 +6123,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>264</v>
@@ -6173,7 +6173,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>265</v>
@@ -6223,7 +6223,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -6241,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K67">
         <v>0.002904234585939434</v>
@@ -6273,25 +6273,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C68">
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>266</v>
@@ -6323,28 +6323,28 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K69">
         <v>0.002840397458896795</v>
@@ -6373,25 +6373,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
       <c r="D70">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E70">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F70">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>267</v>
@@ -6423,25 +6423,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E71">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F71">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>268</v>
@@ -6473,28 +6473,28 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E72">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F72">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K72">
         <v>0.002708212715646339</v>
@@ -6523,28 +6523,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004740612895449112</v>
+        <v>0.004812629213065651</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E73">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F73">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K73">
         <v>0.002708212715646339</v>
@@ -6573,28 +6573,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004740612895449112</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K74">
         <v>0.002708212715646339</v>
@@ -6623,28 +6623,28 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004740612895449112</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K75">
         <v>0.002639639238140146</v>
@@ -6673,7 +6673,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>269</v>
@@ -6723,7 +6723,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>270</v>
@@ -6773,7 +6773,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>271</v>
@@ -6823,7 +6823,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>272</v>
@@ -6873,28 +6873,28 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K80">
         <v>0.002496848753170732</v>
@@ -6923,7 +6923,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>273</v>
@@ -6973,25 +6973,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E82">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F82">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>274</v>
@@ -7023,28 +7023,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K83">
         <v>0.002422299091885809</v>
@@ -7073,28 +7073,28 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="E84">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F84">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>29</v>
+        <v>3045</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K84">
         <v>0.002422299091885809</v>
@@ -7123,25 +7123,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.004240133075694526</v>
+        <v>0.004304546428366446</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="E85">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F85">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>29</v>
+        <v>809</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>275</v>
@@ -7173,25 +7173,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004240133075694526</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>3045</v>
+        <v>27</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>276</v>
@@ -7223,28 +7223,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.004240133075694526</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>809</v>
+        <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K87">
         <v>0.002422299091885809</v>
@@ -7273,7 +7273,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -7291,10 +7291,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K88">
         <v>0.002345381010601772</v>
@@ -7323,7 +7323,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -7373,7 +7373,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -7391,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K90">
         <v>0.002345381010601772</v>
@@ -7423,7 +7423,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -7441,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K91">
         <v>0.002345381010601772</v>
@@ -7473,7 +7473,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -7491,10 +7491,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K92">
         <v>0.002345381010601772</v>
@@ -7523,7 +7523,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -7541,10 +7541,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K93">
         <v>0.002265853322532587</v>
@@ -7573,7 +7573,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>278</v>
@@ -7623,28 +7623,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K95">
         <v>0.002265853322532587</v>
@@ -7673,25 +7673,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>279</v>
@@ -7723,25 +7723,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E97">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F97">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>280</v>
@@ -7773,28 +7773,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E98">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F98">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K98">
         <v>0.002265853322532587</v>
@@ -7823,28 +7823,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E99">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F99">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K99">
         <v>0.002183430895076035</v>
@@ -7873,28 +7873,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E100">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="F100">
-        <v>0.13</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K100">
         <v>0.002183430895076035</v>
@@ -7923,28 +7923,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="E101">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F101">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>197</v>
+        <v>426</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K101">
         <v>0.002183430895076035</v>
@@ -7973,28 +7973,28 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E102">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F102">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K102">
         <v>0.002183430895076035</v>
@@ -8023,25 +8023,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="E103">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F103">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>281</v>
@@ -8073,13 +8073,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E104">
         <v>0.97</v>
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>282</v>
@@ -8123,25 +8123,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
       <c r="D105">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>0.96</v>
+        <v>0.62</v>
       </c>
       <c r="F105">
-        <v>0.04000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>283</v>
@@ -8173,28 +8173,28 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003672062958978106</v>
+        <v>0.003727846558734914</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K106">
         <v>0.002097772549137086</v>
@@ -8223,25 +8223,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003672062958978106</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>284</v>
@@ -8273,13 +8273,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003672062958978106</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>285</v>
@@ -8323,7 +8323,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8341,10 +8341,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K109">
         <v>0.002097772549137086</v>
@@ -8373,7 +8373,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K110">
         <v>0.002097772549137086</v>
@@ -8423,7 +8423,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>286</v>
@@ -8473,7 +8473,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>287</v>
@@ -8523,7 +8523,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -8541,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K113">
         <v>0.002008464304450961</v>
@@ -8573,7 +8573,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -8591,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K114">
         <v>0.002008464304450961</v>
@@ -8623,7 +8623,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>288</v>
@@ -8673,7 +8673,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>289</v>
@@ -8723,7 +8723,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -8741,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>290</v>
@@ -8773,28 +8773,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K118">
         <v>0.001914995576129161</v>
@@ -8823,25 +8823,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>291</v>
@@ -8873,28 +8873,28 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E120">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F120">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K120">
         <v>0.001816724318914357</v>
@@ -8923,25 +8923,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>292</v>
@@ -8973,25 +8973,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="E122">
-        <v>0.98</v>
+        <v>0.71</v>
       </c>
       <c r="F122">
-        <v>0.02000000000000002</v>
+        <v>0.29</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>293</v>
@@ -9023,25 +9023,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>1109</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>294</v>
@@ -9073,25 +9073,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="F124">
-        <v>0.29</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>295</v>
@@ -9123,25 +9123,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E125">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F125">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1109</v>
+        <v>104</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>296</v>
@@ -9173,28 +9173,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E126">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F126">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K126">
         <v>0.001712824113934471</v>
@@ -9223,25 +9223,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>297</v>
@@ -9273,25 +9273,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F128">
-        <v>0.05000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>298</v>
@@ -9323,7 +9323,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -9341,10 +9341,10 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K129">
         <v>0.001712824113934471</v>
@@ -9373,25 +9373,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="F130">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>299</v>
@@ -9423,25 +9423,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E131">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="F131">
-        <v>0.22</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>300</v>
@@ -9473,25 +9473,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="F132">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>301</v>
@@ -9523,25 +9523,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E133">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F133">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>302</v>
@@ -9573,25 +9573,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E134">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F134">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>303</v>
@@ -9623,28 +9623,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F135">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K135">
         <v>0.001712824113934471</v>
@@ -9673,25 +9673,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E136">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F136">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>304</v>
@@ -9723,25 +9723,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E137">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F137">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>305</v>
@@ -9773,28 +9773,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E138">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F138">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K138">
         <v>0.001602200249536861</v>
@@ -9823,28 +9823,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E139">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F139">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K139">
         <v>0.001602200249536861</v>
@@ -9873,25 +9873,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002998226850956973</v>
+        <v>0.003043773969430247</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>306</v>
@@ -9923,28 +9923,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002998226850956973</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K141">
         <v>0.001602200249536861</v>
@@ -9973,13 +9973,13 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002998226850956973</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -9991,10 +9991,10 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K142">
         <v>0.001602200249536861</v>
@@ -10023,7 +10023,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>307</v>
@@ -10073,7 +10073,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>308</v>
@@ -10123,7 +10123,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10141,10 +10141,10 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K145">
         <v>0.001602200249536861</v>
@@ -10173,7 +10173,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>309</v>
@@ -10223,7 +10223,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>310</v>
@@ -10273,7 +10273,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>311</v>
@@ -10323,7 +10323,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>312</v>
@@ -10373,7 +10373,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>313</v>
@@ -10423,25 +10423,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>314</v>
@@ -10473,25 +10473,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>315</v>
@@ -10523,28 +10523,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K153">
         <v>0.001602200249536861</v>
@@ -10573,25 +10573,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>316</v>
@@ -10623,7 +10623,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10641,10 +10641,10 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K155">
         <v>0.001483349194881824</v>
@@ -10673,25 +10673,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>317</v>
@@ -10723,25 +10723,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>318</v>
@@ -10773,25 +10773,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E158">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F158">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>319</v>
@@ -10823,28 +10823,28 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K159">
         <v>0.001483349194881824</v>
@@ -10873,25 +10873,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F160">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>320</v>
@@ -10923,25 +10923,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>321</v>
@@ -10973,7 +10973,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>322</v>
@@ -11023,22 +11023,22 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>13</v>
@@ -11073,25 +11073,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>324</v>
@@ -11123,25 +11123,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>325</v>
@@ -11173,28 +11173,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K166">
         <v>0.001483349194881824</v>
@@ -11223,7 +11223,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11241,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>326</v>
@@ -11273,25 +11273,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>327</v>
@@ -11323,25 +11323,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>328</v>
@@ -11373,25 +11373,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>329</v>
@@ -11423,25 +11423,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E171">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F171">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>330</v>
@@ -11473,25 +11473,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>331</v>
@@ -11523,25 +11523,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E173">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F173">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>332</v>
@@ -11573,25 +11573,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E174">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F174">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>333</v>
@@ -11623,25 +11623,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F175">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>334</v>
@@ -11673,25 +11673,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>335</v>
@@ -11723,25 +11723,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>336</v>
@@ -11773,25 +11773,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>337</v>
@@ -11823,28 +11823,28 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K179">
         <v>0.001354106357823169</v>
@@ -11873,7 +11873,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>338</v>
@@ -11923,7 +11923,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -11941,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>339</v>
@@ -11973,25 +11973,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>340</v>
@@ -12023,25 +12023,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E183">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F183">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>341</v>
@@ -12073,25 +12073,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>342</v>
@@ -12123,28 +12123,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F185">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K185">
         <v>0.001354106357823169</v>
@@ -12173,28 +12173,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K186">
         <v>0.001354106357823169</v>
@@ -12223,25 +12223,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>343</v>
@@ -12273,25 +12273,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E188">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F188">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>344</v>
@@ -12323,25 +12323,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>345</v>
@@ -12373,25 +12373,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E190">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>346</v>
@@ -12423,28 +12423,28 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F191">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K191">
         <v>0.001354106357823169</v>
@@ -12473,25 +12473,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>347</v>
@@ -12523,25 +12523,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E193">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>348</v>
@@ -12573,25 +12573,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E194">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F194">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>75</v>
+        <v>536</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>349</v>
@@ -12623,28 +12623,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F195">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K195">
         <v>0.001354106357823169</v>
@@ -12673,25 +12673,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E196">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F196">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>536</v>
+        <v>88</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>350</v>
@@ -12723,7 +12723,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -12741,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>351</v>
@@ -12773,25 +12773,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E198">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F198">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>352</v>
@@ -12823,25 +12823,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F199">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>353</v>
@@ -12873,25 +12873,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F200">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>354</v>
@@ -12923,7 +12923,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -12941,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>355</v>
@@ -12973,25 +12973,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E202">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F202">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>356</v>
@@ -13023,25 +13023,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E203">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F203">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>357</v>
@@ -13073,13 +13073,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E204">
         <v>0.99</v>
@@ -13091,10 +13091,10 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K204">
         <v>0.001211149545942904</v>
@@ -13123,25 +13123,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E205">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F205">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>358</v>
@@ -13173,25 +13173,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>359</v>
@@ -13223,25 +13223,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E207">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F207">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>360</v>
@@ -13273,25 +13273,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F208">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>361</v>
@@ -13323,25 +13323,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E209">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F209">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>362</v>
@@ -13373,25 +13373,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E210">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F210">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>363</v>
@@ -13423,25 +13423,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E211">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F211">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>364</v>
@@ -13473,28 +13473,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E212">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F212">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K212">
         <v>0.001211149545942904</v>
@@ -13523,13 +13523,13 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E213">
         <v>0.93</v>
@@ -13541,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>365</v>
@@ -13573,7 +13573,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13591,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>366</v>
@@ -13623,25 +13623,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E215">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F215">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>367</v>
@@ -13673,25 +13673,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E216">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F216">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>368</v>
@@ -13723,25 +13723,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>369</v>
@@ -13773,25 +13773,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E218">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F218">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>370</v>
@@ -13823,25 +13823,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>371</v>
@@ -13873,25 +13873,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>372</v>
@@ -13923,25 +13923,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>373</v>
@@ -13973,28 +13973,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E222">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F222">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K222">
         <v>0.001211149545942904</v>
@@ -14023,25 +14023,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E223">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F223">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>374</v>
@@ -14073,25 +14073,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E224">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F224">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>375</v>
@@ -14123,25 +14123,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E225">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F225">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>376</v>
@@ -14173,25 +14173,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E226">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F226">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>377</v>
@@ -14223,25 +14223,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E227">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F227">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>378</v>
@@ -14273,13 +14273,13 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E228">
         <v>0.97</v>
@@ -14291,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>379</v>
@@ -14323,13 +14323,13 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E229">
         <v>0.97</v>
@@ -14341,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>380</v>
@@ -14373,25 +14373,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="E230">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F230">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>381</v>
@@ -14423,28 +14423,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K231">
         <v>0.001211149545942904</v>
@@ -14473,25 +14473,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>382</v>
@@ -14523,25 +14523,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>383</v>
@@ -14573,7 +14573,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14591,10 +14591,10 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K234">
         <v>0.001211149545942904</v>
@@ -14623,13 +14623,13 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E235">
         <v>0.97</v>
@@ -14641,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>384</v>
@@ -14673,25 +14673,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>385</v>
@@ -14723,25 +14723,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E237">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F237">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>386</v>
@@ -14773,25 +14773,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E238">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F238">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>387</v>
@@ -14823,25 +14823,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>388</v>
@@ -14873,25 +14873,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>389</v>
@@ -14923,25 +14923,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>390</v>
@@ -14973,7 +14973,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>391</v>
@@ -15023,25 +15023,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>392</v>
@@ -15073,7 +15073,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15091,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>393</v>
@@ -15123,7 +15123,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>394</v>
@@ -15173,7 +15173,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15191,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>395</v>
@@ -15223,7 +15223,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>396</v>
@@ -15273,7 +15273,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002120066537847263</v>
+        <v>0.002152273214183223</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15291,7 +15291,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>397</v>
@@ -15319,30 +15319,6 @@
       </c>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0.002120066537847263</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-      <c r="E249">
-        <v>0</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249" t="b">
-        <v>0</v>
-      </c>
-      <c r="H249">
-        <v>251</v>
-      </c>
       <c r="J249" s="1" t="s">
         <v>398</v>
       </c>
@@ -15369,30 +15345,6 @@
       </c>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0.002120066537847263</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-      <c r="E250">
-        <v>0</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250" t="b">
-        <v>0</v>
-      </c>
-      <c r="H250">
-        <v>11</v>
-      </c>
       <c r="J250" s="1" t="s">
         <v>399</v>
       </c>
@@ -15498,7 +15450,7 @@
     </row>
     <row r="254" spans="1:17">
       <c r="J254" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K254">
         <v>0.001048886274568543</v>
@@ -15888,7 +15840,7 @@
     </row>
     <row r="269" spans="10:17">
       <c r="J269" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K269">
         <v>0.001048886274568543</v>
@@ -16096,7 +16048,7 @@
     </row>
     <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K277">
         <v>0.001048886274568543</v>
@@ -16304,7 +16256,7 @@
     </row>
     <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K285">
         <v>0.001048886274568543</v>
@@ -16798,7 +16750,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K304">
         <v>0.001048886274568543</v>
@@ -17162,7 +17114,7 @@
     </row>
     <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K318">
         <v>0.0008564120569672357</v>
@@ -17292,7 +17244,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K323">
         <v>0.0008564120569672357</v>
@@ -17422,7 +17374,7 @@
     </row>
     <row r="328" spans="10:17">
       <c r="J328" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K328">
         <v>0.0008564120569672357</v>
@@ -17786,7 +17738,7 @@
     </row>
     <row r="342" spans="10:17">
       <c r="J342" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K342">
         <v>0.0008564120569672357</v>
@@ -17812,7 +17764,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K343">
         <v>0.0008564120569672357</v>
@@ -17838,7 +17790,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K344">
         <v>0.0008564120569672357</v>
@@ -18254,7 +18206,7 @@
     </row>
     <row r="360" spans="10:17">
       <c r="J360" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K360">
         <v>0.0008564120569672357</v>
@@ -18306,7 +18258,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K362">
         <v>0.0008564120569672357</v>
@@ -18384,7 +18336,7 @@
     </row>
     <row r="365" spans="10:17">
       <c r="J365" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K365">
         <v>0.0008564120569672357</v>
@@ -18514,7 +18466,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K370">
         <v>0.0008564120569672357</v>
@@ -19554,7 +19506,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K410">
         <v>0.0008564120569672357</v>
@@ -19788,7 +19740,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K419">
         <v>0.0008564120569672357</v>
@@ -20386,7 +20338,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K442">
         <v>0.0006055747729714521</v>
@@ -20854,7 +20806,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K460">
         <v>0.0006055747729714521</v>
@@ -21114,7 +21066,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K470">
         <v>0.0006055747729714521</v>
@@ -22180,7 +22132,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K511">
         <v>0.0006055747729714521</v>
@@ -22908,7 +22860,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K539">
         <v>0.0006055747729714521</v>
@@ -23038,7 +22990,7 @@
     </row>
     <row r="544" spans="10:17">
       <c r="J544" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K544">
         <v>0.0006055747729714521</v>
@@ -24130,7 +24082,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K586">
         <v>0.0006055747729714521</v>
@@ -24546,7 +24498,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K602">
         <v>0.0006055747729714521</v>
@@ -25118,7 +25070,7 @@
     </row>
     <row r="624" spans="10:17">
       <c r="J624" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K624">
         <v>0.0006055747729714521</v>
@@ -26652,7 +26604,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K683">
         <v>0.0006055747729714521</v>
@@ -27094,7 +27046,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K700">
         <v>0.0006055747729714521</v>
